--- a/newpycode/inventory_bulk_import/dataheavy_inventory.xlsx
+++ b/newpycode/inventory_bulk_import/dataheavy_inventory.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiagangzhang/workspace/myownsync/newpycode/inventory_bulk_import/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventory" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SkuCode</t>
   </si>
@@ -25,62 +38,34 @@
     <t>Perpetual</t>
   </si>
   <si>
-    <t>qap-dh-B7KO9SIYM0A-PINK-S</t>
+    <t>qap-dh-48YDO5IE1VH-PINK-XL</t>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>qap-dh-B7KO9SIYM0A-PINK-M</t>
-  </si>
-  <si>
-    <t>qap-dh-B7KO9SIYM0A-PINK-XL</t>
-  </si>
-  <si>
-    <t>qap-dh-B7KO9SIYM0A-PINK-L</t>
-  </si>
-  <si>
-    <t>qap-dh-TIN7O6BV5NS-PINK-S</t>
-  </si>
-  <si>
-    <t>qap-dh-TIN7O6BV5NS-PINK-M</t>
-  </si>
-  <si>
-    <t>qap-dh-TIN7O6BV5NS-PINK-XL</t>
-  </si>
-  <si>
-    <t>qap-dh-TIN7O6BV5NS-PINK-L</t>
-  </si>
-  <si>
-    <t>qap-dh-50GIID55S7W-PINK-S</t>
-  </si>
-  <si>
-    <t>qap-dh-50GIID55S7W-PINK-M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,15 +81,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,25 +383,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD25"/>
+      <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="33.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="10.6640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="9.6640625"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,131 +408,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>9956</v>
+      <c r="B2">
+        <v>9301</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9593</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9553</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9307</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9601</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9521</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9378</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9858</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9571</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9876</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3"/>
-    <row r="13" spans="1:3"/>
-    <row r="14" spans="1:3"/>
-    <row r="15" spans="1:3"/>
-    <row r="16" spans="1:3"/>
-    <row r="17" spans="1:3"/>
-    <row r="18" spans="1:3"/>
-    <row r="19" spans="1:3"/>
-    <row r="20" spans="1:3"/>
-    <row r="21" spans="1:3"/>
-    <row r="22" spans="1:3"/>
-    <row r="23" spans="1:3"/>
-    <row r="24" spans="1:3"/>
-    <row r="25" spans="1:3"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/newpycode/inventory_bulk_import/dataheavy_inventory.xlsx
+++ b/newpycode/inventory_bulk_import/dataheavy_inventory.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiagangzhang/workspace/myownsync/newpycode/inventory_bulk_import/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>SkuCode</t>
   </si>
@@ -38,34 +25,932 @@
     <t>Perpetual</t>
   </si>
   <si>
-    <t>qap-dh-48YDO5IE1VH-PINK-XL</t>
+    <t>qap-dh-37Y5274L0R9-PINK-L</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>qap-dh-37Y5274L0R9-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-37Y5274L0R9-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-37Y5274L0R9-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-TRGLPGVFIAO-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-TRGLPGVFIAO-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-TRGLPGVFIAO-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-TRGLPGVFIAO-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-FDEZCK2KUS8-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-FDEZCK2KUS8-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-FDEZCK2KUS8-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-FDEZCK2KUS8-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-BKEODUL4TD9-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-BKEODUL4TD9-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-BKEODUL4TD9-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-BKEODUL4TD9-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-L5DFK984NCL-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-L5DFK984NCL-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-L5DFK984NCL-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-L5DFK984NCL-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-L8O7ZG9WYC1-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-L8O7ZG9WYC1-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-L8O7ZG9WYC1-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-L8O7ZG9WYC1-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-8LS528HFE6D-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-8LS528HFE6D-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-8LS528HFE6D-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-8LS528HFE6D-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-6LOWW9RYSCD-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-6LOWW9RYSCD-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-6LOWW9RYSCD-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-6LOWW9RYSCD-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-D1PD8TBT89D-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-D1PD8TBT89D-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-D1PD8TBT89D-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-D1PD8TBT89D-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-VGJ8DZ9QOVL-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-VGJ8DZ9QOVL-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-VGJ8DZ9QOVL-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-VGJ8DZ9QOVL-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-AI0NGX9WGIM-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-AI0NGX9WGIM-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-AI0NGX9WGIM-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-AI0NGX9WGIM-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-T7JDCC3BXLH-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-T7JDCC3BXLH-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-T7JDCC3BXLH-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-T7JDCC3BXLH-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-YY8CY76NVD8-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-YY8CY76NVD8-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-YY8CY76NVD8-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-YY8CY76NVD8-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-X60EDJHMI37-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-X60EDJHMI37-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-X60EDJHMI37-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-X60EDJHMI37-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-6FR3PJ2M2SX-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-6FR3PJ2M2SX-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-6FR3PJ2M2SX-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-6FR3PJ2M2SX-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-C9TIZXQT4ES-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-C9TIZXQT4ES-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-C9TIZXQT4ES-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-C9TIZXQT4ES-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-GL6NIQDFJIV-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-GL6NIQDFJIV-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-GL6NIQDFJIV-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-GL6NIQDFJIV-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-C8YO298DW5L-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-C8YO298DW5L-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-C8YO298DW5L-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-C8YO298DW5L-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-LN1MQEKBS27-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-LN1MQEKBS27-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-LN1MQEKBS27-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-LN1MQEKBS27-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-UEOI40CZFSD-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-UEOI40CZFSD-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-UEOI40CZFSD-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-UEOI40CZFSD-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-ML6FH3FI9DR-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-ML6FH3FI9DR-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-ML6FH3FI9DR-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-ML6FH3FI9DR-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-42ODFAAQE4M-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-42ODFAAQE4M-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-42ODFAAQE4M-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-42ODFAAQE4M-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-5R53GJPITYS-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-5R53GJPITYS-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-5R53GJPITYS-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-5R53GJPITYS-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-ZNE6W3209HH-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-ZNE6W3209HH-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-ZNE6W3209HH-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-ZNE6W3209HH-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-HBABXKKEDTM-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-HBABXKKEDTM-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-HBABXKKEDTM-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-HBABXKKEDTM-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-WUA535XVVR7-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-WUA535XVVR7-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-WUA535XVVR7-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-WUA535XVVR7-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-1TBD2QWW0AP-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-1TBD2QWW0AP-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-1TBD2QWW0AP-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-1TBD2QWW0AP-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-HZ2OQ10RUJL-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-HZ2OQ10RUJL-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-HZ2OQ10RUJL-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-HZ2OQ10RUJL-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-GVWNW76EHRK-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-GVWNW76EHRK-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-GVWNW76EHRK-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-GVWNW76EHRK-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-W78W5ZWKM6E-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-W78W5ZWKM6E-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-W78W5ZWKM6E-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-W78W5ZWKM6E-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-YL6YLC1BER2-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-YL6YLC1BER2-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-YL6YLC1BER2-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-YL6YLC1BER2-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-RH12JK73DZT-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-RH12JK73DZT-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-RH12JK73DZT-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-RH12JK73DZT-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-UKY3DQ16VRK-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-UKY3DQ16VRK-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-UKY3DQ16VRK-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-UKY3DQ16VRK-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-ET9GC43RUUO-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-ET9GC43RUUO-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-ET9GC43RUUO-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-ET9GC43RUUO-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-X05VDHS4LC2-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-X05VDHS4LC2-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-X05VDHS4LC2-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-X05VDHS4LC2-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-IBH1869L7W9-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-IBH1869L7W9-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-IBH1869L7W9-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-IBH1869L7W9-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-WOQUY0XRMG2-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-WOQUY0XRMG2-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-WOQUY0XRMG2-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-WOQUY0XRMG2-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-FJI1OXEFYPN-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-FJI1OXEFYPN-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-FJI1OXEFYPN-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-FJI1OXEFYPN-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-OC3EJHCNYUM-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-OC3EJHCNYUM-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-OC3EJHCNYUM-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-OC3EJHCNYUM-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-GY2YA8I3VS6-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-GY2YA8I3VS6-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-GY2YA8I3VS6-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-GY2YA8I3VS6-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-9CTACYYSIE1-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-9CTACYYSIE1-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-9CTACYYSIE1-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-9CTACYYSIE1-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-HAVRWXIA3R8-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-HAVRWXIA3R8-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-HAVRWXIA3R8-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-HAVRWXIA3R8-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-NV48AW646OK-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-NV48AW646OK-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-NV48AW646OK-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-NV48AW646OK-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-XE5LYHCD03Q-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-XE5LYHCD03Q-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-XE5LYHCD03Q-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-XE5LYHCD03Q-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-KQ9PABY92IA-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-KQ9PABY92IA-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-KQ9PABY92IA-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-KQ9PABY92IA-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-81RVRLQI8VD-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-81RVRLQI8VD-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-81RVRLQI8VD-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-81RVRLQI8VD-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-290SC7OW1C0-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-290SC7OW1C0-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-290SC7OW1C0-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-290SC7OW1C0-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-U8XVY2MTIWJ-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-U8XVY2MTIWJ-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-U8XVY2MTIWJ-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-U8XVY2MTIWJ-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-DE9LX6A1Q8X-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-DE9LX6A1Q8X-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-DE9LX6A1Q8X-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-DE9LX6A1Q8X-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-1JYA10Y5RFQ-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-1JYA10Y5RFQ-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-1JYA10Y5RFQ-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-1JYA10Y5RFQ-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-9LCY8RS08ED-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-9LCY8RS08ED-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-9LCY8RS08ED-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-9LCY8RS08ED-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-1P5VO2PPM2N-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-1P5VO2PPM2N-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-1P5VO2PPM2N-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-1P5VO2PPM2N-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-ZAXTSG6X6PG-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-ZAXTSG6X6PG-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-ZAXTSG6X6PG-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-ZAXTSG6X6PG-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-VD9GAGL514M-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-VD9GAGL514M-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-VD9GAGL514M-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-VD9GAGL514M-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-K61RD5J76FI-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-K61RD5J76FI-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-K61RD5J76FI-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-K61RD5J76FI-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-XBWPWJDX3C0-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-XBWPWJDX3C0-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-XBWPWJDX3C0-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-XBWPWJDX3C0-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-7OE694TP4CR-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-7OE694TP4CR-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-7OE694TP4CR-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-7OE694TP4CR-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-HCM8XPH16J1-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-HCM8XPH16J1-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-HCM8XPH16J1-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-HCM8XPH16J1-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-VIGPI4P9XE7-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-VIGPI4P9XE7-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-VIGPI4P9XE7-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-VIGPI4P9XE7-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-991UQF0BT2W-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-991UQF0BT2W-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-991UQF0BT2W-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-991UQF0BT2W-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-61H555ROIDV-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-61H555ROIDV-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-61H555ROIDV-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-61H555ROIDV-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-T0CPLHUJNFW-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-T0CPLHUJNFW-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-T0CPLHUJNFW-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-T0CPLHUJNFW-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-GEG69V1VFLI-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-GEG69V1VFLI-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-GEG69V1VFLI-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-GEG69V1VFLI-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-NE490WMCP6H-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-NE490WMCP6H-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-NE490WMCP6H-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-NE490WMCP6H-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-RETP2RWME66-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-RETP2RWME66-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-RETP2RWME66-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-RETP2RWME66-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-U7AJ3KX4EB8-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-U7AJ3KX4EB8-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-U7AJ3KX4EB8-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-U7AJ3KX4EB8-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-1QGWT35JKZ7-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-1QGWT35JKZ7-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-1QGWT35JKZ7-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-1QGWT35JKZ7-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-J5W3CGJA2OX-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-J5W3CGJA2OX-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-J5W3CGJA2OX-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-J5W3CGJA2OX-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-ND7TS81AK7O-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-ND7TS81AK7O-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-ND7TS81AK7O-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-ND7TS81AK7O-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-FDOGVOOLM9Z-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-FDOGVOOLM9Z-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-FDOGVOOLM9Z-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-FDOGVOOLM9Z-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-O6IXOCMJIHP-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-O6IXOCMJIHP-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-O6IXOCMJIHP-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-O6IXOCMJIHP-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-Q1IHCIPCLWG-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-Q1IHCIPCLWG-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-Q1IHCIPCLWG-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-Q1IHCIPCLWG-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-S54DNVLUCGW-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-S54DNVLUCGW-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-S54DNVLUCGW-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-S54DNVLUCGW-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-OM4B3QTSGUO-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-OM4B3QTSGUO-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-OM4B3QTSGUO-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-OM4B3QTSGUO-PINK-S</t>
+  </si>
+  <si>
+    <t>qap-dh-HWBW0989CZA-PINK-L</t>
+  </si>
+  <si>
+    <t>qap-dh-HWBW0989CZA-PINK-XL</t>
+  </si>
+  <si>
+    <t>qap-dh-HWBW0989CZA-PINK-M</t>
+  </si>
+  <si>
+    <t>qap-dh-HWBW0989CZA-PINK-S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,21 +966,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -383,21 +1262,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="33.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="9.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,19 +1291,3307 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>9301</v>
+      <c r="B2" t="n">
+        <v>9606</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9038</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9415</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9527</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9093</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9593</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9502</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9841</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9669</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9763</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9985</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9614</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9864</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9593</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9078</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9698</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9682</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9642</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9222</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9325</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9447</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9283</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9670</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9564</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9406</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9441</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9826</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9253</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9778</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9798</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9352</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9756</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9579</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9091</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9924</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9358</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9253</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9850</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9734</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9234</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9633</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="n">
+        <v>9407</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="n">
+        <v>9926</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9197</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="n">
+        <v>9307</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9589</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9546</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9931</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9656</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="n">
+        <v>9795</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9629</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9027</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9578</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9096</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9378</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9269</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="n">
+        <v>9117</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="n">
+        <v>9926</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="n">
+        <v>9410</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="n">
+        <v>9570</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="n">
+        <v>9767</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="n">
+        <v>9196</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="n">
+        <v>9103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="n">
+        <v>9717</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="n">
+        <v>9908</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="n">
+        <v>9826</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="n">
+        <v>9763</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="n">
+        <v>9308</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="n">
+        <v>9556</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="n">
+        <v>9712</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="n">
+        <v>9198</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n">
+        <v>9546</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9151</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n">
+        <v>9732</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n">
+        <v>9930</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="n">
+        <v>9951</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9143</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="n">
+        <v>9471</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9105</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="n">
+        <v>9909</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="n">
+        <v>9160</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="n">
+        <v>9055</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="n">
+        <v>9541</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="n">
+        <v>9562</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="n">
+        <v>9134</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="n">
+        <v>9778</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="n">
+        <v>9162</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="n">
+        <v>9075</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9525</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9169</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="n">
+        <v>9912</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9659</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9291</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9516</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9817</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9346</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9784</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9884</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9805</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9373</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9004</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9894</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9159</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9658</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9253</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9667</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9494</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9924</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9141</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9296</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9165</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9229</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9428</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9647</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9847</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9928</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9911</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9275</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9286</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9546</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9792</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9122</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9381</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9679</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9555</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9025</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9688</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9017</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9686</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9284</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9475</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9466</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9893</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9714</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9967</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9951</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9046</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9621</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9143</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9338</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9488</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9893</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9877</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9901</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9196</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9163</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9895</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9083</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9246</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9817</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9220</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9848</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9160</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9544</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9395</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9719</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9375</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9892</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9292</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9447</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9272</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9312</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9592</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9657</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9926</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9057</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9627</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9623</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9352</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9904</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" t="n">
+        <v>9361</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" t="n">
+        <v>9943</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" t="n">
+        <v>9561</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" t="n">
+        <v>9954</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" t="n">
+        <v>9561</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" t="n">
+        <v>9755</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" t="n">
+        <v>9766</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" t="n">
+        <v>9450</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" t="n">
+        <v>9838</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" t="n">
+        <v>9842</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" t="n">
+        <v>9633</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" t="n">
+        <v>9815</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" t="n">
+        <v>9799</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" t="n">
+        <v>9007</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212" t="n">
+        <v>9693</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" t="n">
+        <v>9083</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214" t="n">
+        <v>9725</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" t="n">
+        <v>9116</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" t="n">
+        <v>9013</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219" t="n">
+        <v>9328</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9217</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221" t="n">
+        <v>9959</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222" t="n">
+        <v>9669</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223" t="n">
+        <v>9027</v>
+      </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224" t="n">
+        <v>9299</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" t="n">
+        <v>9553</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" t="n">
+        <v>9679</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" t="n">
+        <v>9261</v>
+      </c>
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" t="n">
+        <v>9370</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" t="n">
+        <v>9754</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" t="n">
+        <v>9110</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" t="n">
+        <v>9976</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" t="n">
+        <v>9394</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" t="n">
+        <v>9546</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" t="n">
+        <v>9742</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" t="n">
+        <v>9579</v>
+      </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236" t="n">
+        <v>9028</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237" t="n">
+        <v>9114</v>
+      </c>
+      <c r="C237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238" t="n">
+        <v>9757</v>
+      </c>
+      <c r="C238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239" t="n">
+        <v>9670</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" t="n">
+        <v>9648</v>
+      </c>
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" t="n">
+        <v>9408</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242" t="n">
+        <v>9135</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243" t="n">
+        <v>9184</v>
+      </c>
+      <c r="C243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244" t="n">
+        <v>9937</v>
+      </c>
+      <c r="C244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245" t="n">
+        <v>9027</v>
+      </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" t="n">
+        <v>9546</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247" t="n">
+        <v>9339</v>
+      </c>
+      <c r="C247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248" t="n">
+        <v>9096</v>
+      </c>
+      <c r="C248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249" t="n">
+        <v>9386</v>
+      </c>
+      <c r="C249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250" t="n">
+        <v>9456</v>
+      </c>
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251" t="n">
+        <v>9262</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" t="n">
+        <v>9172</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253" t="n">
+        <v>9107</v>
+      </c>
+      <c r="C253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" t="n">
+        <v>9584</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255" t="n">
+        <v>9216</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256" t="n">
+        <v>9459</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257" t="n">
+        <v>9863</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258" t="n">
+        <v>9717</v>
+      </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259" t="n">
+        <v>9894</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" t="n">
+        <v>9143</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261" t="n">
+        <v>9781</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262" t="n">
+        <v>9399</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263" t="n">
+        <v>9853</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264" t="n">
+        <v>9609</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265" t="n">
+        <v>9378</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266" t="n">
+        <v>9145</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267" t="n">
+        <v>9271</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268" t="n">
+        <v>9436</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269" t="n">
+        <v>9314</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270" t="n">
+        <v>9243</v>
+      </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271" t="n">
+        <v>9045</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272" t="n">
+        <v>9465</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273" t="n">
+        <v>9644</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274" t="n">
+        <v>9317</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275" t="n">
+        <v>9396</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276" t="n">
+        <v>9677</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277" t="n">
+        <v>9727</v>
+      </c>
+      <c r="C277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278" t="n">
+        <v>9768</v>
+      </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279" t="n">
+        <v>9194</v>
+      </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" t="n">
+        <v>9362</v>
+      </c>
+      <c r="C280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281" t="n">
+        <v>9920</v>
+      </c>
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282" t="n">
+        <v>9305</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283" t="n">
+        <v>9098</v>
+      </c>
+      <c r="C283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284" t="n">
+        <v>9738</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285" t="n">
+        <v>9701</v>
+      </c>
+      <c r="C285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286" t="n">
+        <v>9307</v>
+      </c>
+      <c r="C286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287" t="n">
+        <v>9663</v>
+      </c>
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288" t="n">
+        <v>9367</v>
+      </c>
+      <c r="C288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289" t="n">
+        <v>9160</v>
+      </c>
+      <c r="C289" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290" t="n">
+        <v>9071</v>
+      </c>
+      <c r="C290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291" t="n">
+        <v>9321</v>
+      </c>
+      <c r="C291" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292" t="n">
+        <v>9206</v>
+      </c>
+      <c r="C292" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293" t="n">
+        <v>9289</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294" t="n">
+        <v>9953</v>
+      </c>
+      <c r="C294" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295" t="n">
+        <v>9794</v>
+      </c>
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296" t="n">
+        <v>9937</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297" t="n">
+        <v>9855</v>
+      </c>
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" t="n">
+        <v>9788</v>
+      </c>
+      <c r="C298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299" t="n">
+        <v>9010</v>
+      </c>
+      <c r="C299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300" t="n">
+        <v>9705</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301" t="n">
+        <v>9217</v>
+      </c>
+      <c r="C301" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>